--- a/src/template_all_output_xxx.xlsx
+++ b/src/template_all_output_xxx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quote!$A$1:$I$12296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quote!$A$1:$I$12299</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
   <si>
     <t>ROW</t>
   </si>
@@ -257,6 +257,30 @@
   </si>
   <si>
     <t>Разработка грунта с погрузкой на автомобили-самосвалы экскаваторами с ковшом вместимостью 1,25-1,8 м3</t>
+  </si>
+  <si>
+    <t>3.1-3-1</t>
+  </si>
+  <si>
+    <t>Разработка грунта в отвал экскаваторами с ковшом вместимостью 0,4 м3 группа грунтов 1-3</t>
+  </si>
+  <si>
+    <t>3.1-3-2</t>
+  </si>
+  <si>
+    <t>Разработка грунта в отвал экскаваторами с ковшом вместимостью 0,25 м3 группа грунтов 1-3</t>
+  </si>
+  <si>
+    <t>3.1-4-1</t>
+  </si>
+  <si>
+    <t>Разработка грунта траншейными роторными экскаваторами при ширине траншеи 1,2 м глубиной до 1,4 м группа грунтов 1-2</t>
+  </si>
+  <si>
+    <t>3.1-4-2</t>
+  </si>
+  <si>
+    <t>Разработка грунта траншейными роторными экскаваторами при ширине траншеи 1,2 м глубиной до 1,4 м группа грунтов 3</t>
   </si>
 </sst>
 </file>
@@ -646,10 +670,10 @@
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,8 +921,100 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I12296"/>
+  <autoFilter ref="A1:I12299"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1184,7 +1300,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12807"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,8 +1554,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/template_all_output_xxx.xlsx
+++ b/src/template_all_output_xxx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tables" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quote!$A$1:$I$12299</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
   <si>
     <t>ROW</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Разработка грунта с погрузкой на автомобили-самосвалы экскаваторами</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>PARAMETER_TITLE</t>
   </si>
   <si>
@@ -281,13 +278,67 @@
   </si>
   <si>
     <t>Разработка грунта траншейными роторными экскаваторами при ширине траншеи 1,2 м глубиной до 1,4 м группа грунтов 3</t>
+  </si>
+  <si>
+    <t>Ширина</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Глубина</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>3.1-4-3</t>
+  </si>
+  <si>
+    <t>3.1-4-4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.1-4-5</t>
+  </si>
+  <si>
+    <t>3.1-4-6</t>
+  </si>
+  <si>
+    <t>3.1-4-7</t>
+  </si>
+  <si>
+    <t>3.1-4-8</t>
+  </si>
+  <si>
+    <t>3.1-4-9</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1 коробка</t>
+  </si>
+  <si>
+    <t>0.898</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +366,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -359,11 +432,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="header_style" xfId="1"/>
@@ -672,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -952,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -975,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -998,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1026,17 +1110,20 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="1" max="1" width="100.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1050,35 +1137,35 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>55</v>
       </c>
       <c r="B4" t="s">
@@ -1092,7 +1179,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>55</v>
       </c>
       <c r="B5" t="s">
@@ -1106,35 +1193,35 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -1148,7 +1235,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>57</v>
       </c>
       <c r="B9" t="s">
@@ -1162,35 +1249,35 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -1204,7 +1291,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>59</v>
       </c>
       <c r="B13" t="s">
@@ -1218,35 +1305,35 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>61</v>
       </c>
       <c r="B16" t="s">
@@ -1260,7 +1347,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>61</v>
       </c>
       <c r="B17" t="s">
@@ -1274,21 +1361,22 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1297,15 +1385,16 @@
   <sheetPr>
     <tabColor rgb="FFFFCC00"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,233 +1405,781 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <f ca="1">ROUND(RAND(),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="H4">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G28" ca="1" si="1">ROUND(RAND(),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H28" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:H1"/>
+  <sortState ref="A2:I28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1568,28 +2205,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1597,10 +2234,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1609,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1621,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1633,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1647,7 +2284,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1659,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1673,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1685,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1699,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1711,13 +2348,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1725,7 +2362,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1737,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/template_all_output_xxx.xlsx
+++ b/src/template_all_output_xxx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kazak\GoogleDrive\1_KK\Job_CNAC\Python_projects\Ex_to_Ex\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazak.ke\PycharmProjects\Excel_To_Excel\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31507A-DAD6-415D-BAC4-9AD0AB9075EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quote!$A$1:$I$12299</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t>ROW</t>
   </si>
@@ -332,13 +344,22 @@
   </si>
   <si>
     <t>0.898</t>
+  </si>
+  <si>
+    <t>Дополнительная</t>
+  </si>
+  <si>
+    <t>3.1-9-5</t>
+  </si>
+  <si>
+    <t>3.1-9-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +401,22 @@
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -432,7 +469,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,9 +485,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="header_style" xfId="1"/>
+    <cellStyle name="header_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,14 +789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,6 +806,7 @@
     <col min="4" max="4" width="103.88671875" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -802,7 +842,7 @@
       <c r="A2">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -825,7 +865,7 @@
       <c r="A3">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -848,7 +888,7 @@
       <c r="A4">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -871,7 +911,7 @@
       <c r="A5">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -894,7 +934,7 @@
       <c r="A6">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -911,13 +951,19 @@
       </c>
       <c r="G6" t="s">
         <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
@@ -934,13 +980,19 @@
       </c>
       <c r="G7" t="s">
         <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -963,7 +1015,7 @@
       <c r="A9">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -986,7 +1038,7 @@
       <c r="A10">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -1009,7 +1061,7 @@
       <c r="A11">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
@@ -1032,7 +1084,7 @@
       <c r="A12">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
@@ -1098,13 +1150,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I12299"/>
+  <autoFilter ref="A1:I12299" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF99CC00"/>
   </sheetPr>
@@ -1381,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFCC00"/>
   </sheetPr>
@@ -1474,7 +1526,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1498,11 +1550,11 @@
       </c>
       <c r="G4">
         <f ca="1">ROUND(RAND(),2)</f>
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,11 +1578,11 @@
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G28" ca="1" si="1">ROUND(RAND(),2)</f>
-        <v>0.05</v>
+        <v>0.61</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H28" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1554,11 +1606,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.79</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,7 +1634,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
@@ -1610,11 +1662,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.05</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1638,7 +1690,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.03</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
@@ -1669,7 +1721,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1693,11 +1745,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1721,11 +1773,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94</v>
+        <v>0.62</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1749,11 +1801,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1777,11 +1829,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1805,7 +1857,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
@@ -1833,11 +1885,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1861,11 +1913,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1889,11 +1941,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.16</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1917,11 +1969,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94</v>
+        <v>0.11</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1945,11 +1997,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36</v>
+        <v>0.83</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1976,7 +2028,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,11 +2052,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2028,11 +2080,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2056,11 +2108,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2084,11 +2136,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2112,7 +2164,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.15</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
@@ -2140,11 +2192,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.81</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,16 +2220,16 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <sortState ref="A2:I28">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
     <sortCondition ref="B2:B28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2185,14 +2237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF666699"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
